--- a/biology/Botanique/Leptophylle/Leptophylle.xlsx
+++ b/biology/Botanique/Leptophylle/Leptophylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Leptophylle se dit de :
-feuilles de très petite taille dont la surface du limbe est inférieure à 20 mm2 [1] selon la classification de Christen Christiansen Raunkiær (1934)[2] ou 25 mm2[3] selon la classification modifiée de Jack A. Wolfe (1993)[4].
+feuilles de très petite taille dont la surface du limbe est inférieure à 20 mm2  selon la classification de Christen Christiansen Raunkiær (1934) ou 25 mm2 selon la classification modifiée de Jack A. Wolfe (1993).
 plantes qui ont des feuilles leptophylles. Par exemple les Torilis à feuilles étroites.</t>
         </is>
       </c>
